--- a/perf/gfoidl.Stochastics.Benchmarks/BenchmarkDotNet.Artifacts/results/gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report.xlsx
+++ b/perf/gfoidl.Stochastics.Benchmarks/BenchmarkDotNet.Artifacts/results/gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t>Method</t>
   </si>
@@ -46,196 +46,289 @@
     <t>Sequential</t>
   </si>
   <si>
-    <t>103.08 ns</t>
-  </si>
-  <si>
-    <t>2.530 ns</t>
-  </si>
-  <si>
-    <t>3.108 ns</t>
-  </si>
-  <si>
-    <t>992.65 ns</t>
-  </si>
-  <si>
-    <t>10.378 ns</t>
-  </si>
-  <si>
-    <t>8.666 ns</t>
-  </si>
-  <si>
-    <t>10,283.10 ns</t>
-  </si>
-  <si>
-    <t>170.939 ns</t>
-  </si>
-  <si>
-    <t>159.896 ns</t>
-  </si>
-  <si>
-    <t>99,172.89 ns</t>
-  </si>
-  <si>
-    <t>1,279.400 ns</t>
-  </si>
-  <si>
-    <t>1,134.155 ns</t>
-  </si>
-  <si>
-    <t>1,041,421.30 ns</t>
-  </si>
-  <si>
-    <t>6,283.693 ns</t>
-  </si>
-  <si>
-    <t>5,570.330 ns</t>
+    <t>267.0 ns</t>
+  </si>
+  <si>
+    <t>1.1646 ns</t>
+  </si>
+  <si>
+    <t>1.0894 ns</t>
+  </si>
+  <si>
+    <t>2,695.1 ns</t>
+  </si>
+  <si>
+    <t>11.5088 ns</t>
+  </si>
+  <si>
+    <t>10.2022 ns</t>
+  </si>
+  <si>
+    <t>26,896.4 ns</t>
+  </si>
+  <si>
+    <t>128.1563 ns</t>
+  </si>
+  <si>
+    <t>119.8774 ns</t>
+  </si>
+  <si>
+    <t>264,949.6 ns</t>
+  </si>
+  <si>
+    <t>934.0504 ns</t>
+  </si>
+  <si>
+    <t>779.9743 ns</t>
+  </si>
+  <si>
+    <t>2,793,817.3 ns</t>
+  </si>
+  <si>
+    <t>24,965.7496 ns</t>
+  </si>
+  <si>
+    <t>22,131.4846 ns</t>
   </si>
   <si>
     <t>Simd</t>
   </si>
   <si>
-    <t>77.95 ns</t>
-  </si>
-  <si>
-    <t>1.381 ns</t>
-  </si>
-  <si>
-    <t>1.418 ns</t>
-  </si>
-  <si>
-    <t>758.28 ns</t>
-  </si>
-  <si>
-    <t>8.265 ns</t>
-  </si>
-  <si>
-    <t>7.731 ns</t>
-  </si>
-  <si>
-    <t>9,173.94 ns</t>
-  </si>
-  <si>
-    <t>72.481 ns</t>
-  </si>
-  <si>
-    <t>67.798 ns</t>
-  </si>
-  <si>
-    <t>74,260.29 ns</t>
-  </si>
-  <si>
-    <t>155.633 ns</t>
-  </si>
-  <si>
-    <t>121.508 ns</t>
-  </si>
-  <si>
-    <t>810,299.97 ns</t>
-  </si>
-  <si>
-    <t>11,487.766 ns</t>
-  </si>
-  <si>
-    <t>9,592.804 ns</t>
+    <t>143.9 ns</t>
+  </si>
+  <si>
+    <t>0.4182 ns</t>
+  </si>
+  <si>
+    <t>0.3707 ns</t>
+  </si>
+  <si>
+    <t>1,335.6 ns</t>
+  </si>
+  <si>
+    <t>7.9871 ns</t>
+  </si>
+  <si>
+    <t>7.4711 ns</t>
+  </si>
+  <si>
+    <t>13,202.7 ns</t>
+  </si>
+  <si>
+    <t>34.2350 ns</t>
+  </si>
+  <si>
+    <t>30.3484 ns</t>
+  </si>
+  <si>
+    <t>134,879.3 ns</t>
+  </si>
+  <si>
+    <t>1,430.3841 ns</t>
+  </si>
+  <si>
+    <t>1,337.9820 ns</t>
+  </si>
+  <si>
+    <t>1,483,392.3 ns</t>
+  </si>
+  <si>
+    <t>28,874.7784 ns</t>
+  </si>
+  <si>
+    <t>33,252.2348 ns</t>
+  </si>
+  <si>
+    <t>UnsafeSimd</t>
+  </si>
+  <si>
+    <t>142.5 ns</t>
+  </si>
+  <si>
+    <t>0.5870 ns</t>
+  </si>
+  <si>
+    <t>0.5203 ns</t>
+  </si>
+  <si>
+    <t>1,308.8 ns</t>
+  </si>
+  <si>
+    <t>3.6940 ns</t>
+  </si>
+  <si>
+    <t>3.0847 ns</t>
+  </si>
+  <si>
+    <t>13,020.3 ns</t>
+  </si>
+  <si>
+    <t>63.8175 ns</t>
+  </si>
+  <si>
+    <t>56.5726 ns</t>
+  </si>
+  <si>
+    <t>131,076.6 ns</t>
+  </si>
+  <si>
+    <t>817.6052 ns</t>
+  </si>
+  <si>
+    <t>682.7373 ns</t>
+  </si>
+  <si>
+    <t>1,465,181.1 ns</t>
+  </si>
+  <si>
+    <t>29,278.0990 ns</t>
+  </si>
+  <si>
+    <t>41,043.8057 ns</t>
   </si>
   <si>
     <t>Parallelized</t>
   </si>
   <si>
-    <t>14,260.56 ns</t>
-  </si>
-  <si>
-    <t>280.124 ns</t>
-  </si>
-  <si>
-    <t>572.218 ns</t>
-  </si>
-  <si>
-    <t>19,512.83 ns</t>
-  </si>
-  <si>
-    <t>388.174 ns</t>
-  </si>
-  <si>
-    <t>784.130 ns</t>
-  </si>
-  <si>
-    <t>29,444.16 ns</t>
-  </si>
-  <si>
-    <t>696.735 ns</t>
-  </si>
-  <si>
-    <t>2,054.338 ns</t>
-  </si>
-  <si>
-    <t>69,457.64 ns</t>
-  </si>
-  <si>
-    <t>1,609.421 ns</t>
-  </si>
-  <si>
-    <t>4,669.222 ns</t>
-  </si>
-  <si>
-    <t>419,496.96 ns</t>
-  </si>
-  <si>
-    <t>8,763.994 ns</t>
-  </si>
-  <si>
-    <t>25,004.168 ns</t>
+    <t>13,869.9 ns</t>
+  </si>
+  <si>
+    <t>275.2562 ns</t>
+  </si>
+  <si>
+    <t>305.9465 ns</t>
+  </si>
+  <si>
+    <t>19,358.3 ns</t>
+  </si>
+  <si>
+    <t>203.5060 ns</t>
+  </si>
+  <si>
+    <t>158.8841 ns</t>
+  </si>
+  <si>
+    <t>31,839.6 ns</t>
+  </si>
+  <si>
+    <t>817.1674 ns</t>
+  </si>
+  <si>
+    <t>1,687.5924 ns</t>
+  </si>
+  <si>
+    <t>157,510.3 ns</t>
+  </si>
+  <si>
+    <t>2,986.4690 ns</t>
+  </si>
+  <si>
+    <t>2,793.5447 ns</t>
+  </si>
+  <si>
+    <t>1,248,575.2 ns</t>
+  </si>
+  <si>
+    <t>17,478.5690 ns</t>
+  </si>
+  <si>
+    <t>16,349.4627 ns</t>
   </si>
   <si>
     <t>ParallelizedSimd</t>
   </si>
   <si>
-    <t>15,109.03 ns</t>
-  </si>
-  <si>
-    <t>297.945 ns</t>
-  </si>
-  <si>
-    <t>566.871 ns</t>
-  </si>
-  <si>
-    <t>18,146.27 ns</t>
-  </si>
-  <si>
-    <t>413.119 ns</t>
-  </si>
-  <si>
-    <t>1,218.091 ns</t>
-  </si>
-  <si>
-    <t>27,063.47 ns</t>
-  </si>
-  <si>
-    <t>538.435 ns</t>
-  </si>
-  <si>
-    <t>1,464.853 ns</t>
-  </si>
-  <si>
-    <t>62,653.87 ns</t>
-  </si>
-  <si>
-    <t>1,247.187 ns</t>
-  </si>
-  <si>
-    <t>3,393.063 ns</t>
-  </si>
-  <si>
-    <t>400,718.96 ns</t>
-  </si>
-  <si>
-    <t>7,924.591 ns</t>
-  </si>
-  <si>
-    <t>18,208.066 ns</t>
-  </si>
-  <si>
-    <t>max values capped to 3</t>
+    <t>13,806.7 ns</t>
+  </si>
+  <si>
+    <t>263.0359 ns</t>
+  </si>
+  <si>
+    <t>377.2382 ns</t>
+  </si>
+  <si>
+    <t>15,647.0 ns</t>
+  </si>
+  <si>
+    <t>305.5757 ns</t>
+  </si>
+  <si>
+    <t>428.3744 ns</t>
+  </si>
+  <si>
+    <t>23,531.8 ns</t>
+  </si>
+  <si>
+    <t>333.9748 ns</t>
+  </si>
+  <si>
+    <t>278.8840 ns</t>
+  </si>
+  <si>
+    <t>66,818.0 ns</t>
+  </si>
+  <si>
+    <t>1,330.5960 ns</t>
+  </si>
+  <si>
+    <t>2,365.1330 ns</t>
+  </si>
+  <si>
+    <t>421,959.5 ns</t>
+  </si>
+  <si>
+    <t>4,722.1225 ns</t>
+  </si>
+  <si>
+    <t>4,186.0382 ns</t>
+  </si>
+  <si>
+    <t>ParallelizedUnsafeSimd</t>
+  </si>
+  <si>
+    <t>13,949.5 ns</t>
+  </si>
+  <si>
+    <t>316.9510 ns</t>
+  </si>
+  <si>
+    <t>412.1259 ns</t>
+  </si>
+  <si>
+    <t>15,267.5 ns</t>
+  </si>
+  <si>
+    <t>296.7190 ns</t>
+  </si>
+  <si>
+    <t>231.6587 ns</t>
+  </si>
+  <si>
+    <t>23,361.9 ns</t>
+  </si>
+  <si>
+    <t>438.2625 ns</t>
+  </si>
+  <si>
+    <t>388.5083 ns</t>
+  </si>
+  <si>
+    <t>63,187.1 ns</t>
+  </si>
+  <si>
+    <t>981.1055 ns</t>
+  </si>
+  <si>
+    <t>917.7266 ns</t>
+  </si>
+  <si>
+    <t>402,343.5 ns</t>
+  </si>
+  <si>
+    <t>4,310.8080 ns</t>
+  </si>
+  <si>
+    <t>4,032.3321 ns</t>
   </si>
 </sst>
 </file>
@@ -309,8 +402,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,7 +430,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF7E0021"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -361,7 +458,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF83CAFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -536,19 +633,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.76</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,7 +660,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Parallelized</c:v>
+                  <c:v>UnsafeSimd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -615,19 +712,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.86</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,7 +739,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ParallelizedSimd</c:v>
+                  <c:v>Parallelized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -694,19 +791,177 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.63</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38</c:v>
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParallelizedSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$F$22:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParallelizedUnsafeSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$F$27:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,11 +969,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="10714870"/>
-        <c:axId val="56775371"/>
+        <c:axId val="25497476"/>
+        <c:axId val="81386216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="10714870"/>
+        <c:axId val="25497476"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,14 +1008,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56775371"/>
+        <c:crossAx val="81386216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56775371"/>
+        <c:axId val="81386216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +1059,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10714870"/>
+        <c:crossAx val="25497476"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -845,15 +1100,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>83880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>348480</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>528840</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -861,8 +1116,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5864760" y="74520"/>
-        <a:ext cx="8306280" cy="5483520"/>
+        <a:off x="6411600" y="66960"/>
+        <a:ext cx="7760160" cy="4902840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -880,44 +1135,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.49489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.04591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.61224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1053,10 +1302,10 @@
         <v>26</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,10 +1325,10 @@
         <v>29</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,10 +1348,10 @@
         <v>32</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.89</v>
+        <v>0.49</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,7 +1371,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.75</v>
+        <v>0.51</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0.01</v>
@@ -1145,7 +1394,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0.01</v>
@@ -1168,10 +1417,10 @@
         <v>42</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3</v>
+        <v>0.53</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>6.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,10 +1440,10 @@
         <v>45</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3</v>
+        <v>0.49</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,10 +1463,10 @@
         <v>48</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2.86</v>
+        <v>0.48</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,10 +1486,10 @@
         <v>51</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.7</v>
+        <v>0.49</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,10 +1509,10 @@
         <v>54</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,10 +1532,10 @@
         <v>58</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>6.89</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,10 +1555,10 @@
         <v>61</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1.23</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,10 +1578,10 @@
         <v>64</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2.63</v>
+        <v>1.18</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,10 +1601,10 @@
         <v>67</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,15 +1624,240 @@
         <v>70</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>71</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/perf/gfoidl.Stochastics.Benchmarks/BenchmarkDotNet.Artifacts/results/gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report.xlsx
+++ b/perf/gfoidl.Stochastics.Benchmarks/BenchmarkDotNet.Artifacts/results/gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>Method</t>
   </si>
@@ -46,45 +46,30 @@
     <t>Sequential</t>
   </si>
   <si>
-    <t>267.0 ns</t>
-  </si>
-  <si>
     <t>1.1646 ns</t>
   </si>
   <si>
     <t>1.0894 ns</t>
   </si>
   <si>
-    <t>2,695.1 ns</t>
-  </si>
-  <si>
     <t>11.5088 ns</t>
   </si>
   <si>
     <t>10.2022 ns</t>
   </si>
   <si>
-    <t>26,896.4 ns</t>
-  </si>
-  <si>
     <t>128.1563 ns</t>
   </si>
   <si>
     <t>119.8774 ns</t>
   </si>
   <si>
-    <t>264,949.6 ns</t>
-  </si>
-  <si>
     <t>934.0504 ns</t>
   </si>
   <si>
     <t>779.9743 ns</t>
   </si>
   <si>
-    <t>2,793,817.3 ns</t>
-  </si>
-  <si>
     <t>24,965.7496 ns</t>
   </si>
   <si>
@@ -94,45 +79,30 @@
     <t>Simd</t>
   </si>
   <si>
-    <t>143.9 ns</t>
-  </si>
-  <si>
     <t>0.4182 ns</t>
   </si>
   <si>
     <t>0.3707 ns</t>
   </si>
   <si>
-    <t>1,335.6 ns</t>
-  </si>
-  <si>
     <t>7.9871 ns</t>
   </si>
   <si>
     <t>7.4711 ns</t>
   </si>
   <si>
-    <t>13,202.7 ns</t>
-  </si>
-  <si>
     <t>34.2350 ns</t>
   </si>
   <si>
     <t>30.3484 ns</t>
   </si>
   <si>
-    <t>134,879.3 ns</t>
-  </si>
-  <si>
     <t>1,430.3841 ns</t>
   </si>
   <si>
     <t>1,337.9820 ns</t>
   </si>
   <si>
-    <t>1,483,392.3 ns</t>
-  </si>
-  <si>
     <t>28,874.7784 ns</t>
   </si>
   <si>
@@ -142,45 +112,30 @@
     <t>UnsafeSimd</t>
   </si>
   <si>
-    <t>142.5 ns</t>
-  </si>
-  <si>
     <t>0.5870 ns</t>
   </si>
   <si>
     <t>0.5203 ns</t>
   </si>
   <si>
-    <t>1,308.8 ns</t>
-  </si>
-  <si>
     <t>3.6940 ns</t>
   </si>
   <si>
     <t>3.0847 ns</t>
   </si>
   <si>
-    <t>13,020.3 ns</t>
-  </si>
-  <si>
     <t>63.8175 ns</t>
   </si>
   <si>
     <t>56.5726 ns</t>
   </si>
   <si>
-    <t>131,076.6 ns</t>
-  </si>
-  <si>
     <t>817.6052 ns</t>
   </si>
   <si>
     <t>682.7373 ns</t>
   </si>
   <si>
-    <t>1,465,181.1 ns</t>
-  </si>
-  <si>
     <t>29,278.0990 ns</t>
   </si>
   <si>
@@ -190,45 +145,30 @@
     <t>Parallelized</t>
   </si>
   <si>
-    <t>13,869.9 ns</t>
-  </si>
-  <si>
     <t>275.2562 ns</t>
   </si>
   <si>
     <t>305.9465 ns</t>
   </si>
   <si>
-    <t>19,358.3 ns</t>
-  </si>
-  <si>
     <t>203.5060 ns</t>
   </si>
   <si>
     <t>158.8841 ns</t>
   </si>
   <si>
-    <t>31,839.6 ns</t>
-  </si>
-  <si>
     <t>817.1674 ns</t>
   </si>
   <si>
     <t>1,687.5924 ns</t>
   </si>
   <si>
-    <t>157,510.3 ns</t>
-  </si>
-  <si>
     <t>2,986.4690 ns</t>
   </si>
   <si>
     <t>2,793.5447 ns</t>
   </si>
   <si>
-    <t>1,248,575.2 ns</t>
-  </si>
-  <si>
     <t>17,478.5690 ns</t>
   </si>
   <si>
@@ -238,45 +178,30 @@
     <t>ParallelizedSimd</t>
   </si>
   <si>
-    <t>13,806.7 ns</t>
-  </si>
-  <si>
     <t>263.0359 ns</t>
   </si>
   <si>
     <t>377.2382 ns</t>
   </si>
   <si>
-    <t>15,647.0 ns</t>
-  </si>
-  <si>
     <t>305.5757 ns</t>
   </si>
   <si>
     <t>428.3744 ns</t>
   </si>
   <si>
-    <t>23,531.8 ns</t>
-  </si>
-  <si>
     <t>333.9748 ns</t>
   </si>
   <si>
     <t>278.8840 ns</t>
   </si>
   <si>
-    <t>66,818.0 ns</t>
-  </si>
-  <si>
     <t>1,330.5960 ns</t>
   </si>
   <si>
     <t>2,365.1330 ns</t>
   </si>
   <si>
-    <t>421,959.5 ns</t>
-  </si>
-  <si>
     <t>4,722.1225 ns</t>
   </si>
   <si>
@@ -286,43 +211,28 @@
     <t>ParallelizedUnsafeSimd</t>
   </si>
   <si>
-    <t>13,949.5 ns</t>
-  </si>
-  <si>
     <t>316.9510 ns</t>
   </si>
   <si>
     <t>412.1259 ns</t>
   </si>
   <si>
-    <t>15,267.5 ns</t>
-  </si>
-  <si>
     <t>296.7190 ns</t>
   </si>
   <si>
     <t>231.6587 ns</t>
   </si>
   <si>
-    <t>23,361.9 ns</t>
-  </si>
-  <si>
     <t>438.2625 ns</t>
   </si>
   <si>
     <t>388.5083 ns</t>
   </si>
   <si>
-    <t>63,187.1 ns</t>
-  </si>
-  <si>
     <t>981.1055 ns</t>
   </si>
   <si>
     <t>917.7266 ns</t>
-  </si>
-  <si>
-    <t>402,343.5 ns</t>
   </si>
   <si>
     <t>4,310.8080 ns</t>
@@ -335,14 +245,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -358,6 +270,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -402,12 +325,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,7 +414,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -498,7 +429,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$2</c:f>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$2:$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -517,6 +448,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -577,7 +509,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$7</c:f>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$7:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -596,6 +528,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -656,7 +589,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$12</c:f>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$12:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -675,6 +608,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -735,7 +669,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$17</c:f>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$17:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -754,6 +688,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -814,7 +749,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$22</c:f>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$22:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -833,6 +768,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -893,7 +829,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$27</c:f>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$27:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -912,6 +848,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -969,11 +906,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="25497476"/>
-        <c:axId val="81386216"/>
+        <c:axId val="57187177"/>
+        <c:axId val="36449053"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25497476"/>
+        <c:axId val="57187177"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,14 +945,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81386216"/>
+        <c:crossAx val="36449053"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81386216"/>
+        <c:axId val="36449053"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,6 +967,535 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57187177"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$2:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2695.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26896.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$7:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$C$7:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>143.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1335.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13202.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$12:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UnsafeSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$C$12:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1308.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13020.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$17:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallelized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$C$17:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13869.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19358.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31839.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$22:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParallelizedSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$C$22:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13806.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23531.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$27:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParallelizedUnsafeSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$C$27:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13949.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15267.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23361.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="71353337"/>
+        <c:axId val="42536841"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="71353337"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1059,7 +1525,638 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25497476"/>
+        <c:crossAx val="42536841"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42536841"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71353337"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$2:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26896.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>264949.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2793817.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$7:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13202.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134879.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1483392.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$12:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UnsafeSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$C$14:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13020.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131076.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1465181.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$17:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallelized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$C$19:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>31839.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157510.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1248575.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$22:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParallelizedSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$C$24:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>23531.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>421959.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$A$27:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParallelizedUnsafeSimd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gfoidl.Stochastics.Benchmarks.CalculateDeltaBenchmarks-report'!$C$29:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>23361.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63187.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>402343.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="14396834"/>
+        <c:axId val="25815694"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="14396834"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25815694"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="25815694"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14396834"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1100,15 +2197,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>110880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>528840</xdr:colOff>
+      <xdr:colOff>555480</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1116,12 +2213,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6411600" y="66960"/>
-        <a:ext cx="7760160" cy="4902840"/>
+        <a:off x="6658200" y="57960"/>
+        <a:ext cx="7851240" cy="4902840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>59760</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749520</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>39240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="59760" y="5122080"/>
+        <a:ext cx="8060040" cy="4345560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>42480</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>695880</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>111600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8235720" y="5031720"/>
+        <a:ext cx="8060040" cy="4345560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1138,35 +2295,37 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+      <selection pane="topLeft" activeCell="H62" activeCellId="0" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6632653061225"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1177,14 +2336,14 @@
       <c r="B2" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -1200,14 +2359,14 @@
       <c r="B3" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="n">
+        <v>2695.1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -1223,14 +2382,14 @@
       <c r="B4" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
+      <c r="C4" s="1" t="n">
+        <v>26896.4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -1246,14 +2405,14 @@
       <c r="B5" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>17</v>
+      <c r="C5" s="1" t="n">
+        <v>264949.6</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -1269,14 +2428,14 @@
       <c r="B6" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
+      <c r="C6" s="1" t="n">
+        <v>2793817.3</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -1287,19 +2446,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>24</v>
+      <c r="C7" s="1" t="n">
+        <v>143.9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0.54</v>
@@ -1310,19 +2469,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>27</v>
+      <c r="C8" s="1" t="n">
+        <v>1335.6</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0.5</v>
@@ -1333,19 +2492,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>30</v>
+      <c r="C9" s="1" t="n">
+        <v>13202.7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0.49</v>
@@ -1356,19 +2515,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>33</v>
+      <c r="C10" s="1" t="n">
+        <v>134879.3</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0.51</v>
@@ -1379,19 +2538,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>36</v>
+      <c r="C11" s="1" t="n">
+        <v>1483392.3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0.53</v>
@@ -1402,19 +2561,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>40</v>
+      <c r="C12" s="1" t="n">
+        <v>142.5</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0.53</v>
@@ -1425,19 +2584,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>43</v>
+      <c r="C13" s="1" t="n">
+        <v>1308.8</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0.49</v>
@@ -1448,19 +2607,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>46</v>
+      <c r="C14" s="1" t="n">
+        <v>13020.3</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0.48</v>
@@ -1471,19 +2630,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>49</v>
+      <c r="C15" s="1" t="n">
+        <v>131076.6</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>0.49</v>
@@ -1494,19 +2653,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>52</v>
+      <c r="C16" s="1" t="n">
+        <v>1465181.1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0.52</v>
@@ -1517,19 +2676,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>56</v>
+      <c r="C17" s="1" t="n">
+        <v>13869.9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1.5</v>
@@ -1540,19 +2699,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>59</v>
+      <c r="C18" s="1" t="n">
+        <v>19358.3</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1.5</v>
@@ -1563,19 +2722,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>62</v>
+      <c r="C19" s="1" t="n">
+        <v>31839.6</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1.18</v>
@@ -1586,19 +2745,19 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>65</v>
+      <c r="C20" s="1" t="n">
+        <v>157510.3</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>0.59</v>
@@ -1609,19 +2768,19 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>68</v>
+      <c r="C21" s="1" t="n">
+        <v>1248575.2</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>0.45</v>
@@ -1632,19 +2791,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>72</v>
+      <c r="C22" s="1" t="n">
+        <v>13806.7</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1.5</v>
@@ -1655,19 +2814,19 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>75</v>
+      <c r="C23" s="1" t="n">
+        <v>15647</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1.5</v>
@@ -1678,19 +2837,19 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>78</v>
+      <c r="C24" s="1" t="n">
+        <v>23531.8</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0.87</v>
@@ -1701,19 +2860,19 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>81</v>
+      <c r="C25" s="1" t="n">
+        <v>66818</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0.25</v>
@@ -1724,19 +2883,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>84</v>
+      <c r="C26" s="1" t="n">
+        <v>421959.5</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0.15</v>
@@ -1747,19 +2906,19 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>88</v>
+      <c r="C27" s="1" t="n">
+        <v>13949.5</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1.5</v>
@@ -1770,19 +2929,19 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>91</v>
+      <c r="C28" s="1" t="n">
+        <v>15267.5</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1.5</v>
@@ -1793,19 +2952,19 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>94</v>
+      <c r="C29" s="1" t="n">
+        <v>23361.9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>0.87</v>
@@ -1816,19 +2975,19 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>97</v>
+      <c r="C30" s="1" t="n">
+        <v>63187.1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0.24</v>
@@ -1839,19 +2998,19 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>100</v>
+      <c r="C31" s="1" t="n">
+        <v>402343.5</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>0.14</v>
